--- a/converted_files/835/835-denial.xlsx
+++ b/converted_files/835/835-denial.xlsx
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>68ec56cbce2f64368d177d8e</t>
+          <t>69014027ca84f491f7f21427</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">

--- a/converted_files/835/835-denial.xlsx
+++ b/converted_files/835/835-denial.xlsx
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>69014027ca84f491f7f21427</t>
+          <t>69446374c1a6b3ab024f4ecd</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
